--- a/docs/PTA2_DDC_100/PTA2_DDC_100_20.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731785367.1481776</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731785367.5464427</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785367.1481776.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785367.5464427.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>268.47</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>267.34</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.130000000000052</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731785368.1909876</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731785370.4787307</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785368.1909876.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785370.4787307.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>266.02</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>266.05</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.03000000000002956</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731785371.7923174</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731785376.0090818</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785371.7923174.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785376.0090818.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>266.94</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>267.78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.839999999999975</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731785376.2843125</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731785376.7642362</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785376.2843125.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785376.7642362.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>267.21</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>268.38</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.170000000000016</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731785378.8795912</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731785380.4475634</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785378.8795912.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731785380.4475634.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>266.83</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>267.86</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.03000000000003</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731785381.4049141</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731785381.698136</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785381.4049141.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785381.698136.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>268.47</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>267.34</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.130000000000052</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731785382.2307048</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731785383.8862817</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785382.2307048.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785383.8862817.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>266.02</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>266.05</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.03000000000002956</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731785384.8476887</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731785388.0720618</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785384.8476887.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785388.0720618.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>266.94</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>267.78</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.839999999999975</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731785388.3054085</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731785388.7143154</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785388.3054085.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785388.7143154.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>267.21</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>268.38</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.170000000000016</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731785390.4008312</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731785391.609594</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785390.4008312.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785391.609594.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>266.83</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>267.86</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.03000000000003</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731785392.4069417</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731785392.81141</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785392.4069417.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785392.81141.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>268.71</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>267.36</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.349999999999966</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731785393.432501</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731785395.3347154</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785393.432501.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785395.3347154.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>266.26</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>266.14</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731785396.688959</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731785401.144107</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785396.688959.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785401.144107.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>267</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>268.05</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731785401.3502605</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731785401.9281793</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785401.3502605.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785401.9281793.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>267.71</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>268.48</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7700000000000387</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731785403.8557901</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731785405.4030702</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785403.8557901.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731785405.4030702.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>267.35</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>267.91</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731785406.2627637</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731785406.7458951</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785406.2627637.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785406.7458951.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>126.68</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>126.31</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731785408.1353693</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731785408.8998942</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785408.1353693.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785408.8998942.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>125.92</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>126.38</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.4599999999999937</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731785409.5923936</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731785409.8654044</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785409.5923936.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785409.8654044.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>126.92</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.48</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731785410.80354</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731785412.4343314</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785410.80354.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785412.4343314.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.27</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>126.71</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731785415.1898746</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731785419.7094784</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785415.1898746.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731785419.7094784.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>126.81</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>126.23</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.5799999999999983</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731785421.7004898</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731785423.889844</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785421.7004898.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785423.889844.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6095.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6099.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731785424.8938026</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731785432.084337</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785424.8938026.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785432.084337.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6115.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6197.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-82</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-1.34</v>
       </c>
     </row>
@@ -1683,95 +1831,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731785433.996436</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731785433.996436.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731785433.996436.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6232</v>
       </c>
-      <c r="J25" t="n">
-        <v>6232</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>6237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731785434.7121143</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731785435.2318587</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785434.7121143.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785435.2318587.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>485.95</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>484</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.949999999999989</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731785436.6186986</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731785439.1112676</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785436.6186986.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785439.1112676.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>481</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>482.05</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.050000000000011</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731785439.2780662</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731785443.6926575</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785439.2780662.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785443.6926575.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>484.05</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>486.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-2.25</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731785446.3476193</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731785447.7836368</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785446.3476193.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785447.7836368.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>486.05</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>486.85</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731785448.5173604</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731785451.2858715</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785448.5173604.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785451.2858715.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>212.71</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>211.87</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.8400000000000034</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731785452.4408715</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731785454.9987912</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785452.4408715.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785454.9987912.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>212.71</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>213.29</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.5799999999999841</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731785456.257558</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731785457.5267692</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785456.257558.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731785457.5267692.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>212.57</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>212.59</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731785463.7303221</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731785464.0891392</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785463.7303221.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785464.0891392.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1013.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1018.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731785467.0853968</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731785468.0613852</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785467.0853968.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785468.0613852.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1019</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731785469.2849188</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731785470.8179405</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785469.2849188.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785470.8179405.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1023.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1025</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.399999999999977</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731785472.295511</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731785474.7999077</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785472.295511.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785474.7999077.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1023.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1023.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731785476.567787</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731785478.2153852</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785476.567787.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785478.2153852.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>12.145</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>12.141</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.003999999999999559</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731785478.8023632</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731785486.6597638</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785478.8023632.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785486.6597638.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.178</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.221</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.04299999999999926</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731785489.1929092</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731785489.3226476</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785489.1929092.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731785489.3226476.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.211</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.222</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01099999999999923</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731785490.0456219</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731785493.5629702</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785490.0456219.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785493.5629702.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>125.3</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.82</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.480000000000004</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731785493.8687716</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731785496.8272102</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785493.8687716.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785496.8272102.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>125.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>125.04</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731785498.4090276</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731785502.906264</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785498.4090276.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731785502.906264.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>124.54</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>124.58</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731785503.8224974</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731785504.6159735</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785503.8224974.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785504.6159735.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>158.58</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>157.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.280000000000001</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731785505.495012</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731785507.6046252</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785505.495012.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785507.6046252.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>155.8</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>156.74</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731785508.3511107</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731785512.2635438</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785508.3511107.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785512.2635438.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>157.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>158.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.7999999999999829</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -2767,51 +3041,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731785513.1054776</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731785513.7874928</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785513.1054776.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785513.7874928.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>158.08</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>158.34</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2819,95 +3099,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731785513.8350494</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731785513.8350494.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731785513.8350494.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>158.14</v>
       </c>
-      <c r="J47" t="n">
-        <v>158.14</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>157.26</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.8799999999999955</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731785519.1444237</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731785522.3599029</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785519.1444237.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785522.3599029.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>47.53</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>47.455</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731785522.7765582</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731785525.4588852</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785522.7765582.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785525.4588852.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>47.65</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>47.575</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.07499999999999574</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731785528.1519694</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731785530.6476955</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785528.1519694.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785530.6476955.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>47.375</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>47.22</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.1550000000000011</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731785535.6222851</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731785539.5210385</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785535.6222851.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785539.5210385.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1343.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1350.4</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-6.600000000000136</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731785540.8939297</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731785544.1695197</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785540.8939297.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785544.1695197.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1345.4</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1344.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.8000000000001819</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731785545.4790287</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731785549.4128158</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785545.4790287.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785549.4128158.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>56.78</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>56.14</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.6400000000000006</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-1.13</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731785549.8345594</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731785553.534036</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785549.8345594.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785553.534036.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>56.15</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.38</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.230000000000004</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731785553.9379735</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731785554.77781</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785553.9379735.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785554.77781.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>56.2</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>56.38</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3279,95 +3613,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731785556.251973</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731785556.251973.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731785556.251973.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>56.13</v>
       </c>
-      <c r="J56" t="n">
-        <v>56.13</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>55.92</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731785559.0864863</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731785560.1495051</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785559.0864863.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785560.1495051.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>99.54000000000001</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>98.81</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.730000000000004</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731785563.668837</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731785566.1255975</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785563.668837.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785566.1255975.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>99.68000000000001</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>99.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1199999999999903</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731785570.742443</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731785572.999574</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785570.742443.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785572.999574.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>99.61</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>99.94</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3479,43 +3837,49 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731785573.577426</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731785573.577426.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731785573.577426.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>100.07</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>100.07</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3523,51 +3887,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731785576.6948655</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731785581.7289548</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785576.6948655.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785581.7289548.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>52.48</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>53.49</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.010000000000005</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-1.92</v>
       </c>
     </row>
@@ -3575,51 +3945,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731785583.9541552</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731785584.864917</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785583.9541552.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785584.864917.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>53.39</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>53.53</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3627,95 +4003,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731785585.9201686</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731785585.9201686.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731785585.9201686.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>53.79</v>
       </c>
-      <c r="J63" t="n">
-        <v>53.79</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>53.89</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731785587.4798057</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731785590.0752826</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785587.4798057.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785590.0752826.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>148.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>149.46</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.260000000000019</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731785590.7148855</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731785592.507473</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785590.7148855.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785592.507473.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>150.48</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>149.68</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.7999999999999829</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731785596.5028267</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731785597.0307193</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785596.5028267.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785597.0307193.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>150.5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>150.4</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731785608.4012442</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731785608.8562312</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785608.4012442.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785608.8562312.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>19.439</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>19.246</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1930000000000014</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.9900000000000001</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731785608.9690797</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731785612.4852712</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785608.9690797.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785612.4852712.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>19.255</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>19.21</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.04499999999999815</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731785612.7578297</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731785616.6347375</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785612.7578297.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785616.6347375.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>19.278</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>19.381</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.1030000000000015</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -3983,51 +4401,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731785617.4446084</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731785618.511934</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785617.4446084.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785618.511934.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>19.343</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>19.397</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.05399999999999849</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731785618.624833</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731785619.7238514</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785618.624833.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785619.7238514.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>19.453</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>19.384</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.06899999999999906</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731785620.5399876</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731785621.9562688</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785620.5399876.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785621.9562688.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>19.302</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>19.373</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.07100000000000151</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4139,51 +4575,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731785622.6911514</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731785623.5260136</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785622.6911514.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785623.5260136.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>669.05</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>665.1</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>3.949999999999932</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -4191,51 +4633,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731785624.1391892</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731785626.4307108</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785624.1391892.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785626.4307108.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>662.25</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>661.85</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4243,51 +4691,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731785627.4051623</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731785629.7155774</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785627.4051623.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785629.7155774.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>664.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>664</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4295,95 +4749,107 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731785630.9545455</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731785630.9545455.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731785630.9545455.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>664</v>
       </c>
-      <c r="J76" t="n">
-        <v>664</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>659.5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731785634.8616676</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731785635.1733267</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785634.8616676.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785635.1733267.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>143.29</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>141.86</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>1.429999999999978</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731785635.8465645</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731785638.5403583</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785635.8465645.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785638.5403583.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>139.17</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>139.14</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731785639.3690493</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731785642.2137127</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785639.3690493.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785642.2137127.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>139.56</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>140.58</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-1.02000000000001</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731785642.7041087</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731785643.86042</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785642.7041087.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785643.86042.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>139.98</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>141</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>1.02000000000001</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -4547,44 +5031,50 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731785644.8283844</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731785644.8283844.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731785644.8283844.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>139.79</v>
       </c>
-      <c r="J81" t="n">
-        <v>139.79</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>137.94</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-1.849999999999994</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-1.32</v>
       </c>
     </row>
   </sheetData>
@@ -4689,19 +5179,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.399999999999977</v>
+        <v>-0.4500000000000171</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2799999999999955</v>
+        <v>-0.09000000000000341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98</v>
+        <v>-0.3400000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +5223,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.680000000000007</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3360000000000014</v>
+        <v>0.1600000000000023</v>
       </c>
       <c r="E6" t="n">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -4777,19 +5267,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6900000000000048</v>
+        <v>-0.9000000000000057</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1725000000000012</v>
+        <v>-0.2250000000000014</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.22</v>
+        <v>-1.59</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="9">
@@ -4843,19 +5333,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.349999999999909</v>
+        <v>-0.1500000000000909</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.087499999999977</v>
+        <v>-0.03750000000002274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6499999999999999</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
@@ -4909,19 +5399,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-78</v>
+        <v>-83</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-26</v>
+        <v>-27.66666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.27</v>
+        <v>-1.35</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.42</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="15">
@@ -4997,19 +5487,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8700000000000045</v>
+        <v>-0.970000000000006</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2900000000000015</v>
+        <v>-0.3233333333333353</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.66</v>
+        <v>-1.85</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.55</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="19">
